--- a/biology/Zoologie/Hyphessobrycon_erythrostigma/Hyphessobrycon_erythrostigma.xlsx
+++ b/biology/Zoologie/Hyphessobrycon_erythrostigma/Hyphessobrycon_erythrostigma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphessobrycon erythrostigma
 Hyphessobrycon erythrostigma, communément nommé Cœur saignant ou Tétra perez, est une espèce de poissons de la famille des Characidae qui se rencontre en Amazonie.
@@ -515,12 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-Petit poisson grégaire d'environ 6 cm de long, Hyphessobrycon erythrostigma est de couleur rosée. Un signe très distinctif et qui lui vaut son surnom de cœur saignant est la tache rouge vif qu'il porte sur le flanc juste derrière les nageoires pectorales.
-Dimorphisme sexuel
-Très différenciable des femelles, les mâles ont une nageoire dorsale très longue et noire au bout et sont généralement plus gros.
-			Cœur saignant mâle
-			Cœur saignant femelle
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit poisson grégaire d'environ 6 cm de long, Hyphessobrycon erythrostigma est de couleur rosée. Un signe très distinctif et qui lui vaut son surnom de cœur saignant est la tache rouge vif qu'il porte sur le flanc juste derrière les nageoires pectorales.
 </t>
         </is>
       </c>
@@ -546,21 +559,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dimorphisme sexuel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très différenciable des femelles, les mâles ont une nageoire dorsale très longue et noire au bout et sont généralement plus gros.
+			Cœur saignant mâle
+			Cœur saignant femelle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyphessobrycon_erythrostigma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphessobrycon_erythrostigma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bien que facile à maintenir en aquarium, sa reproduction en captivité est plus difficile.
-Caractéristiques de l'eau
-Température : 23−28 °C
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que facile à maintenir en aquarium, sa reproduction en captivité est plus difficile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyphessobrycon_erythrostigma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphessobrycon_erythrostigma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maintenance en aquarium</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques de l'eau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Température : 23−28 °C
 pH : 5,6-7,2
 Dureté : max 12° dGH
-Taille minimale de l'aquarium : 60 cm de long
-Alimentation
-Carnivore, il s'accommode de flocon ou de nourriture lyophilisée, bien que préférant la nourriture vivante telle que les larves de moustiques.
-Comportement
-Reproduction en aquarium</t>
+Taille minimale de l'aquarium : 60 cm de long</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyphessobrycon_erythrostigma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphessobrycon_erythrostigma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maintenance en aquarium</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carnivore, il s'accommode de flocon ou de nourriture lyophilisée, bien que préférant la nourriture vivante telle que les larves de moustiques.
+</t>
         </is>
       </c>
     </row>
